--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304059.4426011741</v>
+        <v>301579.453756041</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>315.3426039722179</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>141.6054194788768</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>249.0719396942785</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.9550930275127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>111.4551904855767</v>
+        <v>22.66160460810729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547911</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>292.3345348282552</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>77.84724700848633</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.28731103590665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877594</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>229.796569204138</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986324</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>88.27810958517541</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833362</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>143.9002723490386</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986295</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>58.24570521548434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>67.10592483573251</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>94.91529601901487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1146.918698535759</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="C2" t="n">
-        <v>777.9561815953475</v>
+        <v>1084.81971816026</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9561815953475</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953475</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2419.303551148765</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U2" t="n">
-        <v>2419.303551148765</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V2" t="n">
-        <v>2419.303551148765</v>
+        <v>1848.424808397152</v>
       </c>
       <c r="W2" t="n">
-        <v>2066.53489587865</v>
+        <v>1848.424808397152</v>
       </c>
       <c r="X2" t="n">
-        <v>1693.069137617571</v>
+        <v>1474.959050136072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1533.518538599881</v>
+        <v>1084.81971816026</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,40 +4404,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844944</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047138</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1512.301504882965</v>
+        <v>224.2539356854977</v>
       </c>
       <c r="C4" t="n">
-        <v>1512.301504882965</v>
+        <v>224.2539356854977</v>
       </c>
       <c r="D4" t="n">
-        <v>1512.301504882965</v>
+        <v>74.13729627316201</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754752</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2142.732099754752</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>2142.732099754752</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>2142.732099754752</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>1914.742548856735</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>1693.949969713205</v>
+        <v>224.2539356854977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.11669882964</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C5" t="n">
-        <v>1498.154181889229</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1498.154181889229</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1112.365929290984</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>701.380024501377</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>364.5418494269123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5081,10 +5081,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121597</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>194.800778399824</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>194.800778399824</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>194.800778399824</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>194.800778399824</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851654</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572585</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424024</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300666</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>430.7826650753331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>283.8927175774227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6966182923026</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400717</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363243</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-7.194992212325636e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>39.34043764846503</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>65.05276550135694</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7723580384619</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.15585306139376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864789027</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4.715200669173726</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>88.18825743108484</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>117.6435571543364</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856667</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.1408962628953</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>988491.789510067</v>
+        <v>988491.7895100671</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="H2" t="n">
-        <v>363215.9698605026</v>
-      </c>
       <c r="I2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605024</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455676</v>
+        <v>95375.52669455671</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26442,19 +26442,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768881</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.14432176885</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-967147.0962084178</v>
+        <v>-967333.4895969572</v>
       </c>
       <c r="C6" t="n">
-        <v>-31038.06482769194</v>
+        <v>-31038.06482769144</v>
       </c>
       <c r="D6" t="n">
-        <v>172400.6767844143</v>
+        <v>172400.6767844142</v>
       </c>
       <c r="E6" t="n">
-        <v>-73266.16609252841</v>
+        <v>-73300.90401796422</v>
       </c>
       <c r="F6" t="n">
-        <v>252146.2957148266</v>
+        <v>252111.5577893908</v>
       </c>
       <c r="G6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893909</v>
       </c>
       <c r="H6" t="n">
-        <v>252146.2957148266</v>
+        <v>252111.5577893911</v>
       </c>
       <c r="I6" t="n">
-        <v>252146.2957148268</v>
+        <v>252111.5577893905</v>
       </c>
       <c r="J6" t="n">
-        <v>84541.11790484389</v>
+        <v>84506.37997940843</v>
       </c>
       <c r="K6" t="n">
-        <v>203036.2030087722</v>
+        <v>203001.4650833365</v>
       </c>
       <c r="L6" t="n">
-        <v>252146.2957148268</v>
+        <v>252111.5577893909</v>
       </c>
       <c r="M6" t="n">
-        <v>167091.2677793149</v>
+        <v>167056.5298538791</v>
       </c>
       <c r="N6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.557789391</v>
       </c>
       <c r="O6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893911</v>
       </c>
       <c r="P6" t="n">
-        <v>252146.2957148268</v>
+        <v>252111.557789391</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.68031877585642</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>228.2828456285409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.97877216099246</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621648</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>118.5871908251983</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>111.9217783229556</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.2973423161881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.156279531907</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.1251564493155</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.352821269285235e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>528.9386420741746</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
